--- a/AssemblyReport.xlsx
+++ b/AssemblyReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Dropbox/BIOINFORMATICS/Fall2018/lectures/15_Genome_Annotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumeed\PycharmProjects\Biol388EC1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A9140-AB4F-1344-8CBA-DA4BD4BF4977}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8B0BC8C7-2609-49A2-AC5D-C3CD4EB6007A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1118" yWindow="1118" windowWidth="24480" windowHeight="13703" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>E-value</t>
   </si>
@@ -37,13 +37,61 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>lcl|ORF1:79:309 unnamed protein product</t>
+  </si>
+  <si>
+    <t>SUL31525.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ribitol-5-phosphate cytidylyltransferase [Staphylococcus aureus]</t>
+  </si>
+  <si>
+    <t>lcl|ORF2:3070:4791 unnamed protein product</t>
+  </si>
+  <si>
+    <t>WP_000975353.1</t>
+  </si>
+  <si>
+    <t>Select seq WP_000975353.1 glycosyltransferase family 2 protein [Staphylococcus aureus]</t>
+  </si>
+  <si>
+    <t>lcl|ORF3:7612:8352 unnamed protein product</t>
+  </si>
+  <si>
+    <t>WP_000645454.1</t>
+  </si>
+  <si>
+    <t>MULTISPECIES: DNA-binding response regulator [Staphylococcus]</t>
+  </si>
+  <si>
+    <t>lcl|ORF5:9943:12234 unnamed protein product</t>
+  </si>
+  <si>
+    <t>nitric oxide reductase [Staphylococcus aureus]</t>
+  </si>
+  <si>
+    <t>WP_000062643.1</t>
+  </si>
+  <si>
+    <t>lcl|ORF9:14950:15072 unnamed protein product</t>
+  </si>
+  <si>
+    <t>EWR73975.1</t>
+  </si>
+  <si>
+    <t>Select seq EWR73975.1 aryl-phospho-beta-D-glucosidase BglA [Staphylococcus aureus FVRH6066]</t>
+  </si>
+  <si>
+    <t>lcl|ORF10:15784:15867 unnamed protein product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,13 +107,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,14 +139,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,18 +494,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="5" width="16" customWidth="1"/>
+    <col min="1" max="1" width="50.5625" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="75.5625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,7 +523,90 @@
       </c>
       <c r="E1" s="1"/>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.9999999999999999E-48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.9999999999999998E-19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="Show report for SUL31525.1" display="https://www.ncbi.nlm.nih.gov/protein/SUL31525.1?report=genbank&amp;log$=prottop&amp;blast_rank=1&amp;RID=XC6VHFXT01R" xr:uid="{8B3FADEE-0D48-4316-85C3-11EE6FDD4678}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="Show report for WP_000975353.1" display="https://www.ncbi.nlm.nih.gov/protein/WP_000975353.1?report=genbank&amp;log$=prottop&amp;blast_rank=1&amp;RID=XC6VHFXT01R" xr:uid="{0D4AA358-7908-4E20-BAA3-7F5676D753E3}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="Show report for WP_000645454.1" display="https://www.ncbi.nlm.nih.gov/protein/WP_000645454.1?report=genbank&amp;log$=prottop&amp;blast_rank=1&amp;RID=XC6VHFXT01R" xr:uid="{74ABF390-8017-41F4-8B21-084F36A65806}"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="Show report for WP_000062643.1" display="https://www.ncbi.nlm.nih.gov/protein/WP_000062643.1?report=genbank&amp;log$=prottop&amp;blast_rank=1&amp;RID=XC6VHFXT01R" xr:uid="{26F7F696-4EA4-4C18-A30A-298FB9B55A91}"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="Show report for EWR73975.1" display="https://www.ncbi.nlm.nih.gov/protein/EWR73975.1?report=genbank&amp;log$=prottop&amp;blast_rank=1&amp;RID=XC6VHFXT01R" xr:uid="{7C93FE82-A799-4144-9B93-E9690FB2AFB6}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>